--- a/Regristro Actualizado.xlsx
+++ b/Regristro Actualizado.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Angel Mery Perez\Desktop\Loto\Programs con exel\App2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{534ABEFF-2663-4599-85B9-E72AB2C66B6D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2A282CF-24AF-40A4-A759-E37A11C2980C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,10 +22,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -398,8 +394,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1311"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1296" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D1310" sqref="D1310"/>
+    <sheetView tabSelected="1" topLeftCell="A386" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G395" sqref="G395"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -412,13 +408,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1">
-        <v>101</v>
+        <v>2017</v>
       </c>
       <c r="C1" s="1">
-        <v>2018</v>
-      </c>
-      <c r="D1" s="4">
-        <v>1000</v>
+        <v>2017</v>
+      </c>
+      <c r="D1" s="1">
+        <v>2017</v>
       </c>
       <c r="E1" s="4">
         <v>1000</v>
@@ -7144,13 +7140,13 @@
         <v>396</v>
       </c>
       <c r="B397" s="1">
-        <v>101</v>
+        <v>2018</v>
       </c>
       <c r="C397" s="1">
-        <v>2019</v>
-      </c>
-      <c r="D397" s="4">
-        <v>1000</v>
+        <v>2018</v>
+      </c>
+      <c r="D397" s="1">
+        <v>2018</v>
       </c>
       <c r="E397" s="4">
         <v>1000</v>
@@ -13876,13 +13872,13 @@
         <v>792</v>
       </c>
       <c r="B793" s="1">
-        <v>101</v>
+        <v>2019</v>
       </c>
       <c r="C793" s="1">
-        <v>2020</v>
-      </c>
-      <c r="D793" s="4">
-        <v>1000</v>
+        <v>2019</v>
+      </c>
+      <c r="D793" s="1">
+        <v>2019</v>
       </c>
       <c r="E793" s="4">
         <v>1000</v>
@@ -20608,13 +20604,13 @@
         <v>1188</v>
       </c>
       <c r="B1189" s="1">
-        <v>101</v>
+        <v>2020</v>
       </c>
       <c r="C1189" s="1">
-        <v>2021</v>
-      </c>
-      <c r="D1189" s="4">
-        <v>1000</v>
+        <v>2020</v>
+      </c>
+      <c r="D1189" s="1">
+        <v>2020</v>
       </c>
       <c r="E1189" s="4">
         <v>1000</v>

--- a/Regristro Actualizado.xlsx
+++ b/Regristro Actualizado.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Angel Mery Perez\Desktop\Loto\Programs con exel\App2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2A282CF-24AF-40A4-A759-E37A11C2980C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51C1FF67-3DB0-4B02-95B6-A66A7EC42584}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -394,8 +394,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1311"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A386" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G395" sqref="G395"/>
+    <sheetView tabSelected="1" topLeftCell="A1301" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F1310" sqref="F1310"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22661,6 +22661,12 @@
       <c r="B1310">
         <v>1001</v>
       </c>
+      <c r="C1310">
+        <v>1001</v>
+      </c>
+      <c r="D1310">
+        <v>1001</v>
+      </c>
       <c r="E1310" s="8"/>
     </row>
     <row r="1311" spans="1:5" x14ac:dyDescent="0.25">

--- a/Regristro Actualizado.xlsx
+++ b/Regristro Actualizado.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Angel Mery Perez\Desktop\Loto\Programs con exel\App2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{269D340E-1F37-49C0-81F2-F472828B6FDB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72C37B7F-BC13-437A-BA22-B99951A43F16}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="15375" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -426,8 +426,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L374"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E87" zoomScale="66" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="M118" sqref="M118"/>
+    <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A315" sqref="A315"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12360,7 +12360,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L374" xr:uid="{E00E23FE-DEBC-4A23-889C-FEA323193BB8}"/>
+  <autoFilter ref="A1:L374" xr:uid="{AFCE22F9-ADF8-4D3E-858C-1DBEF7DA7196}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
